--- a/CloudMessagePush/src/main/webapp/download/template.xlsx
+++ b/CloudMessagePush/src/main/webapp/download/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>发送频道</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>是否可复制</t>
-  </si>
-  <si>
-    <t>信息形式</t>
   </si>
   <si>
     <t>发送频道</t>
@@ -96,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +111,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -158,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -166,13 +155,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -492,11 +483,11 @@
     <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="254" width="9" style="1"/>
+    <col min="6" max="6" width="19.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="4" customWidth="1"/>
+    <col min="8" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="9"/>
+    <col min="13" max="254" width="9" style="1"/>
     <col min="255" max="257" width="14.88671875" style="1" customWidth="1"/>
     <col min="258" max="510" width="9" style="1"/>
     <col min="511" max="513" width="14.88671875" style="1" customWidth="1"/>
@@ -626,4450 +617,3684 @@
     <col min="16384" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103"/>
-      <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106"/>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108"/>
-      <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110"/>
-      <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="F111"/>
-      <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112"/>
-      <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
-      <c r="F114"/>
-      <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
-      <c r="F115"/>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
-      <c r="F116"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
-      <c r="F117"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
-      <c r="F118"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
-      <c r="F119"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
-      <c r="F120"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
-      <c r="F121"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
-      <c r="F122"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
-      <c r="F123"/>
-      <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
-      <c r="F124"/>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
-      <c r="F125"/>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126"/>
-      <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
-      <c r="F127"/>
-      <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
-      <c r="F128"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
-      <c r="F129"/>
-      <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
-      <c r="F130"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
-      <c r="F131"/>
-      <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
-      <c r="F132"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
-      <c r="F133"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
-      <c r="F134"/>
-      <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
-      <c r="F135"/>
-      <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
-      <c r="F136"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
-      <c r="F137"/>
-      <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
-      <c r="F138"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
-      <c r="F139"/>
-      <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
-      <c r="F140"/>
-      <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
-      <c r="F141"/>
-      <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
-      <c r="F142"/>
-      <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
-      <c r="F143"/>
-      <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
-      <c r="F144"/>
-      <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
-      <c r="F145"/>
-      <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
-      <c r="F146"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
-      <c r="F147"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
-      <c r="F148"/>
-      <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
-      <c r="F149"/>
-      <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
-      <c r="F150"/>
-      <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
-      <c r="F151"/>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
-      <c r="F152"/>
-      <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
-      <c r="F153"/>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
-      <c r="F154"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
-      <c r="F155"/>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
-      <c r="F156"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
-      <c r="F157"/>
-      <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
-      <c r="F158"/>
-      <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
-      <c r="F159"/>
-      <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
-      <c r="F160"/>
-      <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
-      <c r="F161"/>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
-      <c r="F162"/>
-      <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
-      <c r="F163"/>
-      <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
-      <c r="F164"/>
-      <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
-      <c r="F165"/>
-      <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
-      <c r="F166"/>
-      <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
-      <c r="F167"/>
-      <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
-      <c r="F168"/>
-      <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
-      <c r="F169"/>
-      <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
-      <c r="F170"/>
-      <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
-      <c r="F171"/>
-      <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
-      <c r="F172"/>
-      <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
-      <c r="F173"/>
-      <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
-      <c r="F174"/>
-      <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
-      <c r="F175"/>
-      <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
-      <c r="F176"/>
-      <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
-      <c r="F177"/>
-      <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
-      <c r="F178"/>
-      <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
-      <c r="F179"/>
-      <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
-      <c r="F180"/>
-      <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
-      <c r="F181"/>
-      <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
-      <c r="F182"/>
-      <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
-      <c r="F183"/>
-      <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
-      <c r="F184"/>
-      <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
-      <c r="F185"/>
-      <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
-      <c r="F186"/>
-      <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
-      <c r="F187"/>
-      <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
-      <c r="F188"/>
-      <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
-      <c r="F189"/>
-      <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="F190"/>
-      <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
-      <c r="F191"/>
-      <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
-      <c r="F192"/>
-      <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
-      <c r="F193"/>
-      <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
-      <c r="F194"/>
-      <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
-      <c r="F195"/>
-      <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
-      <c r="F196"/>
-      <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
-      <c r="F197"/>
-      <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
-      <c r="F198"/>
-      <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
-      <c r="F199"/>
-      <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
-      <c r="F200"/>
-      <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
-      <c r="F201"/>
-      <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
-      <c r="F202"/>
-      <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
-      <c r="F203"/>
-      <c r="I203" s="4"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
-      <c r="F204"/>
-      <c r="I204" s="4"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
-      <c r="F205"/>
-      <c r="I205" s="4"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
       <c r="E206"/>
-      <c r="F206"/>
-      <c r="I206" s="4"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="E207"/>
-      <c r="F207"/>
-      <c r="I207" s="4"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="E208"/>
-      <c r="F208"/>
-      <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
       <c r="E209"/>
-      <c r="F209"/>
-      <c r="I209" s="4"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
       <c r="E210"/>
-      <c r="F210"/>
-      <c r="I210" s="4"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
       <c r="E211"/>
-      <c r="F211"/>
-      <c r="I211" s="4"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
       <c r="E212"/>
-      <c r="F212"/>
-      <c r="I212" s="4"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
       <c r="E213"/>
-      <c r="F213"/>
-      <c r="I213" s="4"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
       <c r="E214"/>
-      <c r="F214"/>
-      <c r="I214" s="4"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215"/>
-      <c r="F215"/>
-      <c r="I215" s="4"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="E216"/>
-      <c r="F216"/>
-      <c r="I216" s="4"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217"/>
-      <c r="F217"/>
-      <c r="I217" s="4"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="E218"/>
-      <c r="F218"/>
-      <c r="I218" s="4"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
       <c r="E219"/>
-      <c r="F219"/>
-      <c r="I219" s="4"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
       <c r="E220"/>
-      <c r="F220"/>
-      <c r="I220" s="4"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
       <c r="E221"/>
-      <c r="F221"/>
-      <c r="I221" s="4"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
       <c r="E222"/>
-      <c r="F222"/>
-      <c r="I222" s="4"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
       <c r="E223"/>
-      <c r="F223"/>
-      <c r="I223" s="4"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
       <c r="E224"/>
-      <c r="F224"/>
-      <c r="I224" s="4"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
       <c r="E225"/>
-      <c r="F225"/>
-      <c r="I225" s="4"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
-      <c r="F226"/>
-      <c r="I226" s="4"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
       <c r="E227"/>
-      <c r="F227"/>
-      <c r="I227" s="4"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
       <c r="E228"/>
-      <c r="F228"/>
-      <c r="I228" s="4"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
       <c r="E229"/>
-      <c r="F229"/>
-      <c r="I229" s="4"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
       <c r="E230"/>
-      <c r="F230"/>
-      <c r="I230" s="4"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
       <c r="E231"/>
-      <c r="F231"/>
-      <c r="I231" s="4"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
       <c r="E232"/>
-      <c r="F232"/>
-      <c r="I232" s="4"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
       <c r="E233"/>
-      <c r="F233"/>
-      <c r="I233" s="4"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
       <c r="E234"/>
-      <c r="F234"/>
-      <c r="I234" s="4"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
-      <c r="F235"/>
-      <c r="I235" s="4"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
       <c r="E236"/>
-      <c r="F236"/>
-      <c r="I236" s="4"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
       <c r="E237"/>
-      <c r="F237"/>
-      <c r="I237" s="4"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
       <c r="E238"/>
-      <c r="F238"/>
-      <c r="I238" s="4"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
       <c r="E239"/>
-      <c r="F239"/>
-      <c r="I239" s="4"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
       <c r="E240"/>
-      <c r="F240"/>
-      <c r="I240" s="4"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
       <c r="E241"/>
-      <c r="F241"/>
-      <c r="I241" s="4"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
       <c r="E242"/>
-      <c r="F242"/>
-      <c r="I242" s="4"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
       <c r="E243"/>
-      <c r="F243"/>
-      <c r="I243" s="4"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
       <c r="E244"/>
-      <c r="F244"/>
-      <c r="I244" s="4"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
       <c r="E245"/>
-      <c r="F245"/>
-      <c r="I245" s="4"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
       <c r="E246"/>
-      <c r="F246"/>
-      <c r="I246" s="4"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247"/>
-      <c r="F247"/>
-      <c r="I247" s="4"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
       <c r="E248"/>
-      <c r="F248"/>
-      <c r="I248" s="4"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
       <c r="E249"/>
-      <c r="F249"/>
-      <c r="I249" s="4"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250"/>
-      <c r="F250"/>
-      <c r="I250" s="4"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
-      <c r="F251"/>
-      <c r="I251" s="4"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
       <c r="E252"/>
-      <c r="F252"/>
-      <c r="I252" s="4"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
       <c r="E253"/>
-      <c r="F253"/>
-      <c r="I253" s="4"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
       <c r="E254"/>
-      <c r="F254"/>
-      <c r="I254" s="4"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
       <c r="E255"/>
-      <c r="F255"/>
-      <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
       <c r="E256"/>
-      <c r="F256"/>
-      <c r="I256" s="4"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
       <c r="E257"/>
-      <c r="F257"/>
-      <c r="I257" s="4"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
       <c r="E258"/>
-      <c r="F258"/>
-      <c r="I258" s="4"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
       <c r="E259"/>
-      <c r="F259"/>
-      <c r="I259" s="4"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
       <c r="E260"/>
-      <c r="F260"/>
-      <c r="I260" s="4"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
       <c r="E261"/>
-      <c r="F261"/>
-      <c r="I261" s="4"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="E262"/>
-      <c r="F262"/>
-      <c r="I262" s="4"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
       <c r="E263"/>
-      <c r="F263"/>
-      <c r="I263" s="4"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264"/>
-      <c r="F264"/>
-      <c r="I264" s="4"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
       <c r="E265"/>
-      <c r="F265"/>
-      <c r="I265" s="4"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266"/>
-      <c r="F266"/>
-      <c r="I266" s="4"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
       <c r="E267"/>
-      <c r="F267"/>
-      <c r="I267" s="4"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
       <c r="E268"/>
-      <c r="F268"/>
-      <c r="I268" s="4"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269"/>
-      <c r="F269"/>
-      <c r="I269" s="4"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270"/>
-      <c r="F270"/>
-      <c r="I270" s="4"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
       <c r="E271"/>
-      <c r="F271"/>
-      <c r="I271" s="4"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
-      <c r="F272"/>
-      <c r="I272" s="4"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
-      <c r="F273"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
-      <c r="F274"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
-      <c r="F275"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
-      <c r="F276"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
-      <c r="F277"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
-      <c r="F278"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
-      <c r="F279"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280"/>
-      <c r="F280"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
-      <c r="F281"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282"/>
-      <c r="F282"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284"/>
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285"/>
-      <c r="F285"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286"/>
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
       <c r="E287"/>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="E288"/>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="E290"/>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="E291"/>
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292"/>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293"/>
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294"/>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295"/>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="E296"/>
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="E297"/>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="E298"/>
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="E299"/>
-      <c r="F299"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300"/>
-      <c r="F300"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301"/>
-      <c r="F301"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302"/>
-      <c r="F302"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
-      <c r="F303"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304"/>
-      <c r="F304"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305"/>
-      <c r="F305"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306"/>
-      <c r="F306"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="E307"/>
-      <c r="F307"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308"/>
-      <c r="F308"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="E309"/>
-      <c r="F309"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
-      <c r="F310"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311"/>
-      <c r="F311"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="E312"/>
-      <c r="F312"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="E313"/>
-      <c r="F313"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="E314"/>
-      <c r="F314"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
-      <c r="F315"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316"/>
-      <c r="F316"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="E317"/>
-      <c r="F317"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
-      <c r="F318"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
-      <c r="F319"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
-      <c r="F320"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
-      <c r="F321"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
-      <c r="F322"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
-      <c r="F323"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
-      <c r="F324"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
-      <c r="F325"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
-      <c r="F326"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
-      <c r="F327"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
-      <c r="F328"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
-      <c r="F329"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
-      <c r="F330"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
-      <c r="F331"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
-      <c r="F332"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
-      <c r="F333"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
-      <c r="F334"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
-      <c r="F335"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
-      <c r="F336"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
-      <c r="F337"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
-      <c r="F338"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
-      <c r="F339"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
-      <c r="F340"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
-      <c r="F341"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
-      <c r="F342"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
-      <c r="F343"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
-      <c r="F344"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
-      <c r="F345"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
-      <c r="F346"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
-      <c r="F347"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="E348"/>
-      <c r="F348"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="E349"/>
-      <c r="F349"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="E350"/>
-      <c r="F350"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="E351"/>
-      <c r="F351"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="E352"/>
-      <c r="F352"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="E353"/>
-      <c r="F353"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="E354"/>
-      <c r="F354"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="E355"/>
-      <c r="F355"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="E356"/>
-      <c r="F356"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="E357"/>
-      <c r="F357"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="E358"/>
-      <c r="F358"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
       <c r="E359"/>
-      <c r="F359"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
       <c r="E360"/>
-      <c r="F360"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
       <c r="E361"/>
-      <c r="F361"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
       <c r="E362"/>
-      <c r="F362"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
       <c r="E363"/>
-      <c r="F363"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
       <c r="E364"/>
-      <c r="F364"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="E365"/>
-      <c r="F365"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
-      <c r="F366"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
-      <c r="F367"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
-      <c r="F368"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
-      <c r="F369"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
-      <c r="F370"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
-      <c r="F371"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
-      <c r="F372"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
-      <c r="F373"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
-      <c r="F374"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
-      <c r="F375"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
-      <c r="F376"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
-      <c r="F377"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
-      <c r="F378"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
-      <c r="F379"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
-      <c r="F380"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
-      <c r="F381"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
-      <c r="F382"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
-      <c r="F383"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
-      <c r="F384"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
-      <c r="F385"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
-      <c r="F386"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
-      <c r="F387"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
-      <c r="F388"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
-      <c r="F389"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
-      <c r="F390"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
-      <c r="F391"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
-      <c r="F392"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
-      <c r="F393"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
-      <c r="F394"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
-      <c r="F395"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
-      <c r="F396"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
       <c r="E397"/>
-      <c r="F397"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
       <c r="E398"/>
-      <c r="F398"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
       <c r="E399"/>
-      <c r="F399"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
       <c r="E400"/>
-      <c r="F400"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
       <c r="E401"/>
-      <c r="F401"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
       <c r="E402"/>
-      <c r="F402"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
       <c r="E403"/>
-      <c r="F403"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
       <c r="E404"/>
-      <c r="F404"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
       <c r="E405"/>
-      <c r="F405"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
       <c r="E406"/>
-      <c r="F406"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="E407"/>
-      <c r="F407"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="E408"/>
-      <c r="F408"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="E409"/>
-      <c r="F409"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
       <c r="E410"/>
-      <c r="F410"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
       <c r="E411"/>
-      <c r="F411"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
       <c r="E412"/>
-      <c r="F412"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
       <c r="E413"/>
-      <c r="F413"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
       <c r="E414"/>
-      <c r="F414"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
-      <c r="F415"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
-      <c r="F416"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
-      <c r="F417"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
-      <c r="F418"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
-      <c r="F419"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
-      <c r="F420"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
-      <c r="F421"/>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
-      <c r="F422"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
-      <c r="F423"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
-      <c r="F424"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
-      <c r="F425"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
-      <c r="F426"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
-      <c r="F427"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
-      <c r="F428"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
-      <c r="F429"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
-      <c r="F430"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
-      <c r="F431"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
-      <c r="F432"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
-      <c r="F433"/>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
-      <c r="F434"/>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
-      <c r="F435"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
-      <c r="F436"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
-      <c r="F437"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
-      <c r="F438"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
-      <c r="F439"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
-      <c r="F440"/>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
-      <c r="F441"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
-      <c r="F442"/>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
-      <c r="F443"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
-      <c r="F444"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
-      <c r="F445"/>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
-      <c r="F446"/>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
-      <c r="F447"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
-      <c r="F448"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
-      <c r="F449"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
-      <c r="F450"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
-      <c r="F451"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
-      <c r="F452"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
-      <c r="F453"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
-      <c r="F454"/>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
-      <c r="F455"/>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
-      <c r="F456"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
-      <c r="F457"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
-      <c r="F458"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
-      <c r="F459"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
-      <c r="F460"/>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
-      <c r="F461"/>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
-      <c r="F462"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
-      <c r="F463"/>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
-      <c r="F464"/>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
-      <c r="F465"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
-      <c r="F466"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
-      <c r="F467"/>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
-      <c r="F468"/>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
-      <c r="F469"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
-      <c r="F470"/>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
-      <c r="F471"/>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
-      <c r="F472"/>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
-      <c r="F473"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
-      <c r="F474"/>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
-      <c r="F475"/>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
-      <c r="F476"/>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
-      <c r="F477"/>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
-      <c r="F478"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
-      <c r="F479"/>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
-      <c r="F480"/>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
-      <c r="F481"/>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
       <c r="D482"/>
       <c r="E482"/>
-      <c r="F482"/>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
       <c r="D483"/>
       <c r="E483"/>
-      <c r="F483"/>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
       <c r="D484"/>
       <c r="E484"/>
-      <c r="F484"/>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
       <c r="D485"/>
       <c r="E485"/>
-      <c r="F485"/>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
       <c r="D486"/>
       <c r="E486"/>
-      <c r="F486"/>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
       <c r="D487"/>
       <c r="E487"/>
-      <c r="F487"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
       <c r="D488"/>
       <c r="E488"/>
-      <c r="F488"/>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
       <c r="D489"/>
       <c r="E489"/>
-      <c r="F489"/>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
       <c r="D490"/>
       <c r="E490"/>
-      <c r="F490"/>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
       <c r="D491"/>
       <c r="E491"/>
-      <c r="F491"/>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
       <c r="D492"/>
       <c r="E492"/>
-      <c r="F492"/>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
       <c r="D493"/>
       <c r="E493"/>
-      <c r="F493"/>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
       <c r="D494"/>
       <c r="E494"/>
-      <c r="F494"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
       <c r="D495"/>
       <c r="E495"/>
-      <c r="F495"/>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
-      <c r="F496"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
       <c r="D497"/>
       <c r="E497"/>
-      <c r="F497"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
       <c r="D498"/>
       <c r="E498"/>
-      <c r="F498"/>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
       <c r="D499"/>
       <c r="E499"/>
-      <c r="F499"/>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
-      <c r="F500"/>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
-      <c r="F501"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
-      <c r="F502"/>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
-      <c r="F503"/>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
-      <c r="F504"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
-      <c r="F505"/>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
-      <c r="F506"/>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
-      <c r="F507"/>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
-      <c r="F508"/>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
-      <c r="F509"/>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
-      <c r="F510"/>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
-      <c r="F511"/>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
-      <c r="F512"/>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
-      <c r="F513"/>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
-      <c r="F514"/>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
-      <c r="F515"/>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
-      <c r="F516"/>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
-      <c r="F517"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518"/>
+      <c r="B518"/>
+      <c r="C518"/>
+      <c r="D518"/>
+      <c r="E518"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576">
+      <formula1>$A$1:$E$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>$F$1:$G$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>F3:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5082,7 +4307,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5096,27 +4321,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5124,16 +4349,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5141,21 +4366,21 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
